--- a/docs/Improvements_bugs.xlsx
+++ b/docs/Improvements_bugs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Numerical values on scale when zooming in</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Commit</t>
   </si>
   <si>
-    <t>Next Commit</t>
+    <t>Commited</t>
   </si>
   <si>
     <t>Comments</t>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v0.2-gf48f </t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,14 +614,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -646,6 +643,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1815,18 +1815,18 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="49" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="100.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.77734375" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.77734375" style="50" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
@@ -1852,7 +1852,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
@@ -1867,8 +1867,10 @@
       <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="17">
@@ -1884,7 +1886,7 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="22" t="s">
         <v>28</v>
       </c>
@@ -1899,8 +1901,10 @@
       <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="17">
@@ -1918,8 +1922,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="55"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="36">
@@ -1935,25 +1939,29 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="43">
         <v>43000</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="44">
         <v>43011</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="17">
@@ -1969,8 +1977,10 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="17">
@@ -1986,8 +1996,10 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="17">
@@ -2003,8 +2015,10 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="17">
@@ -2020,8 +2034,10 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="17">
@@ -2037,13 +2053,13 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2063,12 +2079,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="25" customWidth="1"/>
@@ -2099,7 +2115,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
+      <c r="A2" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" s="16" t="s">
         <v>26</v>
       </c>
@@ -2115,7 +2133,9 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
@@ -2131,7 +2151,9 @@
       <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2168,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2162,7 +2186,9 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" s="16" t="s">
         <v>26</v>
       </c>
@@ -2180,7 +2206,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
